--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2153.014853825162</v>
+        <v>428449.9559112075</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2153.014853825162</v>
+        <v>428449.9559112075</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85763.98007414863</v>
+        <v>5858995.738837877</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85763.98007414863</v>
+        <v>5858995.738837877</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342791174.025381</v>
+        <v>50136558.82487115</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14939.81491159192</v>
+        <v>1287250.73946505</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28108.57467548255</v>
+        <v>2268978.881434959</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41282.66427445765</v>
+        <v>3250707.023404868</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54723.81846957056</v>
+        <v>4231391.863794459</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68164.97266468345</v>
+        <v>5212076.704184049</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81596.95960921442</v>
+        <v>6193900.086943273</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>95027.65496730166</v>
+        <v>7175466.444000187</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>108458.3503253889</v>
+        <v>8157032.801057102</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>122067.4664989695</v>
+        <v>9093561.787639301</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>135730.6160771756</v>
+        <v>10040843.42174199</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>149393.7656553817</v>
+        <v>10988125.05584467</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>163056.9152335879</v>
+        <v>11935406.68994735</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>176720.064811794</v>
+        <v>12882688.32405005</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>190394.9880287896</v>
+        <v>13827911.55729498</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>204071.3367003309</v>
+        <v>14773418.45599446</v>
       </c>
     </row>
   </sheetData>
